--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palad\Desktop\fmh-android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307E5862-81F9-4681-9A87-222489E582E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07BD6D-DF2D-4835-8D1F-4590225EA9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <t>Экран "Тематические цитаты"</t>
   </si>
   <si>
-    <t>Название теста</t>
+    <t>Невозможно покрыть. Неактивны кнопки изменения претензии</t>
   </si>
 </sst>
 </file>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,14 +829,13 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="37.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -847,22 +846,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -872,19 +868,18 @@
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -892,19 +887,18 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -912,19 +906,18 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -932,19 +925,18 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -954,19 +946,18 @@
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -974,19 +965,18 @@
       <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -994,19 +984,18 @@
       <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1014,19 +1003,18 @@
       <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1034,19 +1022,18 @@
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1054,19 +1041,18 @@
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1074,19 +1060,18 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1094,19 +1079,18 @@
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1114,19 +1098,20 @@
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1134,19 +1119,18 @@
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1154,19 +1138,18 @@
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1174,19 +1157,18 @@
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1194,19 +1176,18 @@
       <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1214,19 +1195,18 @@
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1236,19 +1216,18 @@
       <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1256,19 +1235,18 @@
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1276,19 +1254,18 @@
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1296,19 +1273,18 @@
       <c r="C23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1318,19 +1294,18 @@
       <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1338,19 +1313,18 @@
       <c r="C25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1358,19 +1332,18 @@
       <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1380,19 +1353,18 @@
       <c r="C27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1400,19 +1372,18 @@
       <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1420,19 +1391,18 @@
       <c r="C29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1442,17 +1412,16 @@
       <c r="C30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
